--- a/data/sub-9999/retrieval1.xlsx
+++ b/data/sub-9999/retrieval1.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>retrieval1</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
     <t>SetC/001a.jpg</t>
   </si>
   <si>
@@ -161,6 +167,12 @@
   </si>
   <si>
     <t>SetC/048b.jpg</t>
+  </si>
+  <si>
+    <t>targ</t>
+  </si>
+  <si>
+    <t>lure</t>
   </si>
 </sst>
 </file>
@@ -518,255 +530,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/sub-9999/retrieval1.xlsx
+++ b/data/sub-9999/retrieval1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>retrieval1</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>lure</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -554,8 +560,8 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -565,8 +571,8 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -576,8 +582,8 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -587,8 +593,8 @@
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -598,8 +604,8 @@
       <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -609,8 +615,8 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -620,8 +626,8 @@
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -631,8 +637,8 @@
       <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -642,8 +648,8 @@
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -653,8 +659,8 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -664,8 +670,8 @@
       <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -675,8 +681,8 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -686,8 +692,8 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -697,8 +703,8 @@
       <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -708,8 +714,8 @@
       <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -719,8 +725,8 @@
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -730,8 +736,8 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -741,8 +747,8 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -752,8 +758,8 @@
       <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -763,8 +769,8 @@
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -774,8 +780,8 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -785,8 +791,8 @@
       <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -796,8 +802,8 @@
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -807,8 +813,8 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -818,8 +824,8 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -829,8 +835,8 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -840,8 +846,8 @@
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -851,8 +857,8 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -862,8 +868,8 @@
       <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -873,8 +879,8 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -884,8 +890,8 @@
       <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="C32">
-        <v>2</v>
+      <c r="C32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -895,8 +901,8 @@
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -906,8 +912,8 @@
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -917,8 +923,8 @@
       <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -928,8 +934,8 @@
       <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C36">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -939,8 +945,8 @@
       <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -950,8 +956,8 @@
       <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -961,8 +967,8 @@
       <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -972,8 +978,8 @@
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="C40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -983,8 +989,8 @@
       <c r="B41" t="s">
         <v>52</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -994,8 +1000,8 @@
       <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1005,8 +1011,8 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1016,8 +1022,8 @@
       <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1027,8 +1033,8 @@
       <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1038,8 +1044,8 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46">
-        <v>2</v>
+      <c r="C46" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1049,8 +1055,8 @@
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1060,8 +1066,8 @@
       <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1071,8 +1077,8 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49">
-        <v>2</v>
+      <c r="C49" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
